--- a/doc/wbs.xlsx
+++ b/doc/wbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\study\myAccountBook\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982237D9-B21C-4AB4-B8AE-D676FAF5A477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCCDF41-E3C0-4260-9344-D577ED84DD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DBB28873-63B9-4D51-868F-93E5336E374C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>대분류</t>
   </si>
@@ -330,6 +330,22 @@
     <t>WBS 완성하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkDate ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numberWithComma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkDateTerm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -389,12 +405,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -407,9 +438,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -422,8 +451,32 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,21 +486,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C629650-1A8F-452A-B33A-72EC234CBE3B}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -775,9 +840,10 @@
     <col min="3" max="3" width="41.25" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +856,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -806,168 +872,380 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="6">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="231" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="231" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="198" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="198" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="198" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="3" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f>SUM(E2:E22)</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
